--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507846.9793192721</v>
+        <v>507846.9793192722</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309997</v>
+        <v>5571875.219309996</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>218.2545356023573</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="W5" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.05769526855308</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,76 +1130,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>110.1947569831735</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1421,22 +1421,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>84.41978777916125</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,13 +1649,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>171.0057867469176</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -1743,10 +1743,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1886,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="18">
@@ -1929,22 +1929,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,73 +2081,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>40.47627913313517</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>70.46500402883862</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,58 +2324,58 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>109.4031921034047</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>131.8562746194806</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,31 +2789,31 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>71.01467844038824</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>18.61863974315345</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2931,13 +2931,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2992,16 +2992,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
@@ -3095,7 +3095,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.2853856434421</v>
+        <v>3.26531605719669</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>87.95566939920795</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>191.264473050588</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3269,22 +3269,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3345,25 +3345,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>69.90638321080203</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3463,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>113.4987843463085</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3785,25 +3785,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>35.40726547353844</v>
+        <v>1.944519418634053</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3937,13 +3937,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>82.69355372315668</v>
+        <v>115.6677505121453</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4192,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W2" t="n">
-        <v>315.6850394389064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X2" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4443,16 +4443,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4483,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4601,13 +4601,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W5" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X5" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
         <v>262.7299197543128</v>
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4650,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4680,16 +4680,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>277.6047704292607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>69.84447166430675</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4762,13 +4762,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
         <v>19.28114311021272</v>
@@ -4838,16 +4838,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="10">
@@ -5069,19 +5069,19 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V11" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
         <v>19.28114311021272</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5121,10 +5121,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
         <v>473.4149733950735</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V14" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W14" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X14" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y14" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="C15" t="n">
         <v>19.28114311021272</v>
@@ -5364,16 +5364,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5382,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>726.1056462496665</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>497.8820279860555</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V15" t="n">
-        <v>262.7299197543128</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5473,13 +5473,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>104.5536560184564</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5622,22 +5622,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="19">
@@ -5698,7 +5698,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>90.45791485651436</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>619.4388494194218</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>411.587349213889</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5929,31 +5929,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>274.0360370837871</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>274.0360370837871</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>274.0360370837871</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>517.4848137278872</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83.81530782185143</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C24" t="n">
-        <v>83.81530782185143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>83.81530782185143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>83.81530782185143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>83.81530782185143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="V24" t="n">
-        <v>327.2640844659515</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="W24" t="n">
-        <v>83.81530782185143</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X24" t="n">
-        <v>83.81530782185143</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y24" t="n">
-        <v>83.81530782185143</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6309,16 +6309,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>227.0414418751666</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W27" t="n">
-        <v>227.0414418751666</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="28">
@@ -6415,10 +6415,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C29" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D29" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E29" t="n">
-        <v>223.6192102101089</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>38.08784992147883</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>38.08784992147883</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6552,7 +6552,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
     </row>
     <row r="31">
@@ -6640,13 +6640,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6698,7 +6698,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K32" t="n">
         <v>122.2961490211351</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X32" t="n">
-        <v>233.7108255783361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,13 +6780,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
         <v>725.4530095217538</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.4964801302808</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="34">
@@ -6880,28 +6880,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F35" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>268.8182272585117</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C36" t="n">
-        <v>268.8182272585117</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D36" t="n">
-        <v>268.8182272585117</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,13 +7017,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>893.4446472168968</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="S36" t="n">
-        <v>720.0273026675657</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="T36" t="n">
-        <v>720.0273026675657</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="U36" t="n">
-        <v>720.0273026675657</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="V36" t="n">
-        <v>720.0273026675657</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="W36" t="n">
-        <v>476.5785260234657</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="X36" t="n">
-        <v>476.5785260234657</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="Y36" t="n">
-        <v>268.8182272585117</v>
+        <v>900.5405560409666</v>
       </c>
     </row>
     <row r="37">
@@ -7111,10 +7111,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>338.3492772117056</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>338.3492772117056</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>338.3492772117056</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7357,7 +7357,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7433,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V41" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="U41" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V41" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D42" t="n">
         <v>19.28114311021272</v>
@@ -7491,13 +7491,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7518,22 +7518,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>55.04605772994853</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="43">
@@ -7585,19 +7585,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C45" t="n">
         <v>19.28114311021272</v>
@@ -7728,19 +7728,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7770,7 +7770,7 @@
         <v>310.5702840197694</v>
       </c>
       <c r="Y45" t="n">
-        <v>102.8099852548154</v>
+        <v>310.5702840197694</v>
       </c>
     </row>
     <row r="46">
@@ -7840,7 +7840,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,7 +8310,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>368.5691090902119</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,19 +9957,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10200,10 +10200,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22568,7 +22568,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,28 +22589,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>33.09111730547923</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22623,28 +22623,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22683,16 +22683,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22841,16 +22841,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,19 +22860,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22920,16 +22920,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23002,7 +23002,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23078,16 +23078,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23100,28 +23100,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>115.7466250978013</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>166.9258651286752</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23337,25 +23337,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23510,10 +23510,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,13 +23537,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,13 +23552,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>1.70271224139816</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23622,7 +23622,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23631,10 +23631,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23774,31 +23774,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>264.8211809382518</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="18">
@@ -23817,22 +23817,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,16 +23862,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>179.1139601010482</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,10 +23938,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,16 +23969,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24063,10 +24063,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>18.93162882257646</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.2218967649542</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24169,7 +24169,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
-        <v>199.2828334142263</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>73.45469409868832</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>90.76153659141691</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24382,10 +24382,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24570,22 +24570,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>100.9443125299447</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,22 +24686,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>344.2880590747468</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24765,13 +24765,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>118.7248774200572</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24819,13 +24819,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>175.8836868124217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24880,16 +24880,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24932,7 +24932,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,7 +24965,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,7 +24974,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
@@ -24983,7 +24983,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126115</v>
+        <v>382.9726225988569</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>59.4893961654308</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25044,13 +25044,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>34.67690903038678</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25202,16 +25202,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25233,25 +25233,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>30.2514509418411</v>
+        <v>37.27640067767025</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25351,13 +25351,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25397,16 +25397,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25473,7 +25473,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25482,16 +25482,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>23.84473281690214</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25597,10 +25597,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25673,25 +25673,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V41" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25758,22 +25758,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>170.365719729939</v>
+        <v>203.8284657848434</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25825,13 +25825,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,7 +25874,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>296.8154002296655</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>83.83962992671066</v>
+        <v>50.86543313772202</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -26010,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26080,10 +26080,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="E2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="D2" t="n">
-        <v>99696.40351879933</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879931</v>
       </c>
       <c r="G2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421395</v>
+        <v>-29533.82927421397</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733373</v>
+        <v>51235.60225733375</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733369</v>
+        <v>51235.60225733375</v>
       </c>
       <c r="E6" t="n">
+        <v>84863.20225733373</v>
+      </c>
+      <c r="F6" t="n">
         <v>84863.20225733372</v>
-      </c>
-      <c r="F6" t="n">
-        <v>84863.20225733367</v>
       </c>
       <c r="G6" t="n">
         <v>84863.20225733373</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.2022573337</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822752</v>
+        <v>21803.25965822754</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733376</v>
       </c>
       <c r="L6" t="n">
         <v>84863.20225733375</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733376</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="N6" t="n">
         <v>84863.20225733373</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733376</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,7 +35030,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,13 +35179,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>99.8112771299739</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507846.9793192722</v>
+        <v>509551.7353335388</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>218.2545356023573</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.31110394229523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>110.1947569831735</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>115.5785074418531</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1391,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>102.3382270926889</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>82.96396779500064</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>171.0057867469176</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -1743,10 +1745,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,67 +1843,67 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1929,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,16 +1976,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>21.0507685937734</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,73 +2080,73 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2157,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>40.61352860687401</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
         <v>47.02492433367365</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E23" t="n">
         <v>241.0142888776591</v>
@@ -2330,10 +2332,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2397,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>36.52847303402369</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>109.4031921034047</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2494,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2563,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>29.14270706479791</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,58 +2803,58 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>18.61863974315345</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>83.72646317855323</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2992,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3029,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,58 +3046,58 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>3.26531605719669</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>31.69844046683744</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>87.95566939920795</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3184,70 +3186,70 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,61 +3280,61 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T35" t="n">
-        <v>33.80371536444976</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3463,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3509,58 +3511,58 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>81.0053776549329</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.79900896488251</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3876,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>1.944519418634053</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3977,13 +3979,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>115.6677505121453</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4361,19 +4363,19 @@
         <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>518.2486856454962</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V2" t="n">
-        <v>518.2486856454962</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W2" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4443,16 +4445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X3" t="n">
-        <v>277.6047704292607</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.84447166430675</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4606,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4647,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>816.6559320512295</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4759,16 +4761,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4826,25 +4828,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
         <v>19.28114311021272</v>
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>375.9758515364179</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>375.9758515364179</v>
+        <v>847.3111883976533</v>
       </c>
       <c r="W9" t="n">
-        <v>375.9758515364179</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="X9" t="n">
-        <v>375.9758515364179</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y9" t="n">
-        <v>168.215552771464</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5072,19 +5074,19 @@
         <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V11" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="12">
@@ -5121,7 +5123,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
         <v>234.810827406191</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C14" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D14" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E14" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>718.7806050553886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>718.7806050553886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>718.7806050553886</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V14" t="n">
-        <v>718.7806050553886</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W14" t="n">
-        <v>718.7806050553886</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X14" t="n">
-        <v>718.7806050553886</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y14" t="n">
-        <v>718.7806050553886</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>192.0142610363921</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
         <v>19.28114311021272</v>
@@ -5358,10 +5360,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
         <v>304.2053859195205</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>360.2295980564601</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5473,13 +5475,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5604,10 +5606,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5624,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>668.2068788942177</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>668.2068788942177</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5689,13 +5691,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>403.4586321852169</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>403.4586321852169</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>55.04605772994853</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>55.04605772994853</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="22">
@@ -5887,10 +5889,10 @@
         <v>66.78106667958005</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>853.5488806587123</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>853.5488806587123</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>853.5488806587123</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>610.1001040146123</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X24" t="n">
-        <v>402.2486038090794</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>846.5570557448675</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>603.1082791007675</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>395.2567788952347</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6412,13 +6414,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>559.1338160830064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C29" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W29" t="n">
-        <v>559.1338160830064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X29" t="n">
-        <v>559.1338160830064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y29" t="n">
-        <v>559.1338160830064</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>197.3253049269343</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>197.3253049269343</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>197.3253049269343</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>38.08784992147883</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>38.08784992147883</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="U30" t="n">
-        <v>432.4774131586771</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="V30" t="n">
-        <v>197.3253049269343</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="W30" t="n">
-        <v>197.3253049269343</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X30" t="n">
-        <v>197.3253049269343</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y30" t="n">
-        <v>197.3253049269343</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="31">
@@ -6640,13 +6642,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6698,7 +6700,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K32" t="n">
         <v>122.2961490211351</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6783,7 +6785,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
         <v>486.8488635328713</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y33" t="n">
-        <v>756.2968567456824</v>
+        <v>51.29976984439196</v>
       </c>
     </row>
     <row r="34">
@@ -6895,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>718.7806050553886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>718.7806050553886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>718.7806050553886</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>900.5405560409666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>900.5405560409666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>900.5405560409666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>900.5405560409666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>900.5405560409666</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>900.5405560409666</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>900.5405560409666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>900.5405560409666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>900.5405560409666</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7262,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7275,22 +7277,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X39" t="n">
         <v>19.28114311021272</v>
@@ -7436,19 +7438,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
         <v>19.28114311021272</v>
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>342.668582052591</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C42" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
         <v>19.28114311021272</v>
@@ -7491,19 +7493,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7524,16 +7526,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X42" t="n">
-        <v>718.6442178376129</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y42" t="n">
-        <v>510.883919072659</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="43">
@@ -7625,10 +7627,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
         <v>19.28114311021272</v>
@@ -7701,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>193.7341723913397</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C45" t="n">
         <v>19.28114311021272</v>
@@ -7737,10 +7739,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7770,7 +7772,7 @@
         <v>310.5702840197694</v>
       </c>
       <c r="Y45" t="n">
-        <v>310.5702840197694</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="46">
@@ -7843,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,10 +8546,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>360.302996258564</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>356.2611315939937</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M15" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9252,13 +9254,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>244.7225752110828</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10431,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11139,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11154,7 +11156,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11385,13 +11387,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>371.3463732493024</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22568,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22601,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>33.09111730547923</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.2220797075721</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22683,7 +22685,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>59.75548455249168</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22999,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>141.2201675643428</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23066,28 +23068,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23121,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>115.7466250978013</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>149.0074258151476</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23507,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>126.0561017912447</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>1.70271224139816</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23631,10 +23633,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23817,22 +23819,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,16 +23864,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>179.1139601010482</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,16 +23931,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24026,13 +24028,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24045,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>104.4556837865099</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,13 +24101,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>170.2754303037659</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24127,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2218967649542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.40903831289552</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E23" t="n">
         <v>140.9160811946027</v>
@@ -24218,10 +24220,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24285,19 +24287,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>110.9165925306151</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,22 +24338,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>90.76153659141691</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24382,10 +24384,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,16 +24451,16 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24500,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,16 +24578,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>344.2880590747468</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>118.7248774200572</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>87.95670792528459</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24880,16 +24882,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24917,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.9726225988569</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>134.8347431830299</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>59.4893961654308</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25202,10 +25204,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>189.2921341996816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.27640067767025</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25351,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25397,22 +25399,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>334.2973598602022</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25448,7 +25450,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>70.35882518776062</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25533,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25676,22 +25678,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>49.05096647893927</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25764,13 +25766,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>203.8284657848434</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25865,13 +25867,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50.86543313772202</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>90.01494526515906</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="E2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="F2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="I2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.4035187994</v>
       </c>
       <c r="K2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="L2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879934</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.4035187994</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421397</v>
+        <v>-29533.82927421398</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733375</v>
+        <v>51235.60225733372</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733375</v>
+        <v>51235.60225733373</v>
       </c>
       <c r="E6" t="n">
         <v>84863.20225733373</v>
       </c>
       <c r="F6" t="n">
+        <v>84863.20225733373</v>
+      </c>
+      <c r="G6" t="n">
+        <v>84863.20225733377</v>
+      </c>
+      <c r="H6" t="n">
+        <v>84863.20225733373</v>
+      </c>
+      <c r="I6" t="n">
         <v>84863.20225733372</v>
       </c>
-      <c r="G6" t="n">
-        <v>84863.20225733373</v>
-      </c>
-      <c r="H6" t="n">
-        <v>84863.2022573337</v>
-      </c>
-      <c r="I6" t="n">
-        <v>84863.20225733373</v>
-      </c>
       <c r="J6" t="n">
-        <v>21803.25965822754</v>
+        <v>21803.25965822751</v>
       </c>
       <c r="K6" t="n">
         <v>84863.20225733376</v>
       </c>
       <c r="L6" t="n">
+        <v>84863.20225733372</v>
+      </c>
+      <c r="M6" t="n">
         <v>84863.20225733375</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
+        <v>84863.20225733375</v>
+      </c>
+      <c r="O6" t="n">
+        <v>84863.20225733375</v>
+      </c>
+      <c r="P6" t="n">
         <v>84863.2022573337</v>
-      </c>
-      <c r="N6" t="n">
-        <v>84863.20225733373</v>
-      </c>
-      <c r="O6" t="n">
-        <v>84863.2022573337</v>
-      </c>
-      <c r="P6" t="n">
-        <v>84863.20225733376</v>
       </c>
     </row>
   </sheetData>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,10 +35266,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>217.7067518141195</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M15" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35972,13 +35974,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36677,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37792,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37874,7 +37876,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38105,13 +38107,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509551.7353335388</v>
+        <v>407299.4256466022</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>89.20720739599011</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.1851246900962</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>19.85836157942401</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>115.5785074418531</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1457,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -1660,10 +1660,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U14" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>43.98987629051499</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1903,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>111.7765806969847</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>40.61352860687401</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2283,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>234.288905720311</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2402,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>36.52847303402369</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2475,55 +2475,55 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2554,67 +2554,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2696,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>29.14270706479791</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="C29" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,11 +2848,11 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>64.4893492849891</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>83.72646317855323</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3034,70 +3034,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31.69844046683744</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,58 +3517,58 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>81.0053776549329</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3590,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>96.78886321333599</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -3796,19 +3796,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W41" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>90.38893773807624</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>134.6675686894588</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>40.47627913313494</v>
       </c>
       <c r="W44" t="n">
-        <v>52.42556848774752</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4076,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>45.27093583804374</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,58 +4134,58 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4415,13 +4415,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4445,16 +4445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>846.5570557448675</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>603.1082791007675</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>395.2567788952347</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.4964801302808</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4761,16 +4761,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>942.6594228129348</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>731.528039392485</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U8" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>189.028636514577</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>189.028636514577</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>40.09422685332572</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>40.09422685332572</v>
       </c>
       <c r="F9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V9" t="n">
-        <v>847.3111883976533</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W9" t="n">
-        <v>603.8624117535533</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X9" t="n">
-        <v>396.0109115480204</v>
+        <v>189.028636514577</v>
       </c>
       <c r="Y9" t="n">
-        <v>188.2506127830665</v>
+        <v>189.028636514577</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5126,16 +5126,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5147,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W12" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X12" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5223,28 +5223,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K14" t="n">
         <v>122.2961490211351</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>369.4873745640509</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>210.2499195585954</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>63.71536158548039</v>
       </c>
       <c r="G15" t="n">
         <v>19.28114311021272</v>
@@ -5363,46 +5363,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5463,25 +5463,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5606,10 +5606,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>749.9819889958605</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>514.8298807641179</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
     </row>
     <row r="19">
@@ -5691,28 +5691,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.6192102101089</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C20" t="n">
-        <v>223.6192102101089</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D20" t="n">
-        <v>223.6192102101089</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E20" t="n">
-        <v>223.6192102101089</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W20" t="n">
-        <v>467.067986854209</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X20" t="n">
-        <v>467.067986854209</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6192102101089</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>552.3930418464681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>552.3930418464681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>403.4586321852169</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>403.4586321852169</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5864,19 +5864,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5931,31 +5931,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C23" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6080,10 +6080,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6107,13 +6107,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>500.6814290152826</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>500.6814290152826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6171,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6414,22 +6414,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U29" t="n">
-        <v>495.259035872464</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V29" t="n">
-        <v>495.259035872464</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W29" t="n">
-        <v>495.259035872464</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X29" t="n">
-        <v>495.259035872464</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y29" t="n">
-        <v>495.259035872464</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>194.4883050441255</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>778.3154410346802</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>778.3154410346802</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>778.3154410346802</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>778.3154410346802</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>778.3154410346802</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>570.4639408291474</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y30" t="n">
-        <v>362.7036420641935</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="31">
@@ -6648,7 +6648,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
         <v>486.8488635328713</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>259.0600686093459</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>51.29976984439196</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6885,16 +6885,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -7022,13 +7022,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7040,25 +7040,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
         <v>19.28114311021272</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>569.2254314512334</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C38" t="n">
-        <v>569.2254314512334</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D38" t="n">
-        <v>569.2254314512334</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E38" t="n">
-        <v>569.2254314512334</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F38" t="n">
-        <v>569.2254314512334</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G38" t="n">
-        <v>487.4018176583718</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V38" t="n">
-        <v>569.2254314512334</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W38" t="n">
-        <v>569.2254314512334</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X38" t="n">
-        <v>569.2254314512334</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y38" t="n">
-        <v>569.2254314512334</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,13 +7262,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7286,19 +7286,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>399.5118995681682</v>
+        <v>765.1210975652027</v>
       </c>
       <c r="W39" t="n">
-        <v>156.0631229240681</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>521.6723209211027</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
         <v>19.28114311021272</v>
@@ -7362,22 +7362,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7423,40 +7423,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="T41" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125842</v>
       </c>
       <c r="U41" t="n">
-        <v>274.0360370837871</v>
+        <v>366.1018663125842</v>
       </c>
       <c r="V41" t="n">
-        <v>30.58726043968704</v>
+        <v>122.6530896684842</v>
       </c>
       <c r="W41" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684842</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684842</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>69.84447166430675</v>
+        <v>156.063122924068</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>156.063122924068</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>156.063122924068</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>156.063122924068</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>156.063122924068</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999107</v>
       </c>
       <c r="V42" t="n">
-        <v>728.9050472788936</v>
+        <v>399.511899568168</v>
       </c>
       <c r="W42" t="n">
-        <v>485.4562706347935</v>
+        <v>156.063122924068</v>
       </c>
       <c r="X42" t="n">
-        <v>277.6047704292607</v>
+        <v>156.063122924068</v>
       </c>
       <c r="Y42" t="n">
-        <v>69.84447166430675</v>
+        <v>156.063122924068</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
         <v>19.28114311021272</v>
@@ -7602,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7660,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830062</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>102.8099852548154</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>634.6640077999107</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>399.511899568168</v>
       </c>
       <c r="W45" t="n">
-        <v>518.4217842253022</v>
+        <v>156.063122924068</v>
       </c>
       <c r="X45" t="n">
-        <v>310.5702840197694</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y45" t="n">
-        <v>102.8099852548154</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="46">
@@ -7833,25 +7833,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,10 +8300,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9011,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9023,10 +9023,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9254,13 +9254,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9728,13 +9728,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10205,7 +10205,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>382.1386950879875</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,7 +10679,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631348</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>119.0371437604433</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>83.50129159232563</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22685,7 +22685,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22865,13 +22865,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>40.52337429821952</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23001,10 +23001,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>141.2201675643428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,16 +23026,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,19 +23068,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2108508139599</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>117.2220797075721</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23345,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>45.86849975841638</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U14" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23579,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>93.35364087269565</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>269.6014437650281</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23825,10 +23825,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>114.1648013839901</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23931,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24028,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>104.4556837865099</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24104,19 +24104,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.40903831289552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24171,13 +24171,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24211,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>181.0138317948241</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24256,7 +24256,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24290,16 +24290,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>110.9165925306151</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>302.3991346476606</v>
       </c>
       <c r="C29" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24727,7 +24727,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>108.2191497033266</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>87.95670792528459</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24818,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24888,10 +24888,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24922,10 +24922,10 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24973,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>134.8347431830299</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>334.2973598602022</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25478,22 +25478,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25526,16 +25526,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>136.0117239360893</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W41" t="n">
-        <v>338.0479125612334</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>295.8490009179774</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>2.675948473751816</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>287.275979337</v>
       </c>
       <c r="W44" t="n">
-        <v>296.8154002296655</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>90.01494526515906</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25964,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>160.5020493654337</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.950340864</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="D2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="J2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879939</v>
@@ -26355,7 +26355,7 @@
         <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879936</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421398</v>
+        <v>-41751.83989425443</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733372</v>
+        <v>39017.59163729327</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733373</v>
+        <v>39017.59163729327</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.20225733377</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822751</v>
+        <v>9585.249038187028</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733376</v>
+        <v>72645.19163729329</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.2022573337</v>
+        <v>72645.19163729325</v>
       </c>
     </row>
   </sheetData>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35020,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35494,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35731,10 +35731,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35743,10 +35743,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36925,7 +36925,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37390,7 +37390,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,7 +37399,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>55.51629994036225</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
